--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -91,84 +91,93 @@
     <t>fears</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
@@ -181,94 +190,106 @@
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -626,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8527397260273972</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -916,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9416666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.68</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,16 +1237,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.9164490861618799</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L13">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,37 +1266,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6296296296296297</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L14">
         <v>17</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1295,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.9069767441860465</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8984375</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4883720930232558</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C17">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D17">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,16 +1487,16 @@
         <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.8943661971830986</v>
+        <v>0.890625</v>
       </c>
       <c r="L18">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,16 +1537,16 @@
         <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2727272727272727</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.24</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.8875</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L21">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="M21">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,21 +1658,45 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,21 +1708,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.2684563758389262</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>109</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L23">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,21 +1758,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.2321428571428572</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>43</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,21 +1808,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>236</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.8611111111111112</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1741,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1767,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1793,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1819,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.8214285714285714</v>
+        <v>0.82</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1845,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.8148148148148148</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1871,12 +1988,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>0.8</v>
@@ -1902,7 +2019,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K32">
         <v>0.7916666666666666</v>
@@ -1928,16 +2045,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K33">
         <v>0.7777777777777778</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1949,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1975,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.7588235294117647</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L35">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2001,12 +2118,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K36">
         <v>0.7407407407407407</v>
@@ -2032,16 +2149,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2053,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.7152542372881356</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L38">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="M38">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2079,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2105,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2131,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.7071129707112971</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L41">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="M41">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2157,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.6914893617021277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L42">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2183,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.6785714285714286</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2209,21 +2326,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.676923076923077</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L44">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2235,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.6741573033707865</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L45">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2261,12 +2378,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K46">
         <v>0.6666666666666666</v>
@@ -2292,16 +2409,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2313,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2339,12 +2456,12 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K49">
         <v>0.6190476190476191</v>
@@ -2370,7 +2487,7 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K50">
         <v>0.6086956521739131</v>
@@ -2396,16 +2513,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.6078431372549019</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2417,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.6</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2443,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.5714285714285714</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2469,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.5555555555555556</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2500,16 +2617,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.5555555555555556</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2521,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.5483870967741935</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2547,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.4383561643835616</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2573,21 +2690,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.3974358974358974</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2599,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.203125</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2625,7 +2742,85 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>51</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="L60">
+        <v>22</v>
+      </c>
+      <c r="M60">
+        <v>22</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>0.265625</v>
+      </c>
+      <c r="L61">
+        <v>17</v>
+      </c>
+      <c r="M61">
+        <v>17</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>14</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
